--- a/process/test_file/nft_image_test.xlsx
+++ b/process/test_file/nft_image_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Canister</t>
   </si>
@@ -43,19 +43,94 @@
     <t>storage canister</t>
   </si>
   <si>
+    <t>x4oqm-bqaaa-aaaam-qahaq-cai</t>
+  </si>
+  <si>
+    <t>DRIP BANG</t>
+  </si>
+  <si>
+    <t>https://x4oqm-bqaaa-aaaam-qahaq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>gif</t>
+  </si>
+  <si>
+    <t>q6hjz-kyaaa-aaaah-qcama-cai</t>
+  </si>
+  <si>
+    <t>ICPBunny</t>
+  </si>
+  <si>
+    <t>https://fp7fo-2aaaa-aaaaf-qaeea-cai.raw.ic0.app/Token/%d</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>n6bj5-ryaaa-aaaan-qaaqq-cai</t>
+  </si>
+  <si>
+    <t>Weapons of Eimolad</t>
+  </si>
+  <si>
+    <t>https://n6bj5-ryaaa-aaaan-qaaqq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>dv6u3-vqaaa-aaaah-qcdlq-cai</t>
+  </si>
+  <si>
+    <t>Tyler &amp; Dakota</t>
+  </si>
+  <si>
+    <t>https://dv6u3-vqaaa-aaaah-qcdlq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>crt3j-mqaaa-aaaah-qcdnq-cai</t>
+  </si>
+  <si>
+    <t>Neil White</t>
+  </si>
+  <si>
+    <t>https://crt3j-mqaaa-aaaah-qcdnq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>cnxby-3qaaa-aaaah-qcdpq-cai</t>
+  </si>
+  <si>
+    <t>Andre Wee</t>
+  </si>
+  <si>
+    <t>https://cnxby-3qaaa-aaaah-qcdpq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>cdvmq-aaaaa-aaaah-qcdoq-cai</t>
+  </si>
+  <si>
+    <t>Selay Karasu</t>
+  </si>
+  <si>
+    <t>https://cdvmq-aaaaa-aaaah-qcdoq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>4gbxl-byaaa-aaaak-aafuq-cai</t>
+  </si>
+  <si>
+    <t>ICPuppies Wearables</t>
+  </si>
+  <si>
+    <t>https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
     <t>ep54t-xiaaa-aaaah-qcdza-cai</t>
   </si>
   <si>
-    <t>ICPuppies Wearables</t>
-  </si>
-  <si>
-    <t>https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>gif</t>
+    <t>fp7fo-2aaaa</t>
   </si>
 </sst>
 </file>
@@ -63,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +152,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -85,6 +195,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -92,15 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,6 +250,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -121,17 +265,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,67 +282,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +302,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,55 +312,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,31 +438,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,91 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,24 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,6 +517,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +545,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,15 +576,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,11 +597,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -675,13 +757,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,23 +1085,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="41.8125" customWidth="1"/>
-    <col min="2" max="2" width="30.3482142857143" customWidth="1"/>
-    <col min="3" max="3" width="149.848214285714" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" customWidth="1"/>
-    <col min="5" max="5" width="13.2410714285714" customWidth="1"/>
-    <col min="6" max="6" width="48.3660714285714" customWidth="1"/>
-    <col min="7" max="7" width="33.3303571428571" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.9196428571429" customWidth="1"/>
-    <col min="9" max="9" width="24.1071428571429" customWidth="1"/>
+    <col min="1" max="1" width="35.1160714285714" customWidth="1"/>
+    <col min="2" max="2" width="29.1607142857143" customWidth="1"/>
+    <col min="3" max="3" width="7.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="5.19642857142857" customWidth="1"/>
+    <col min="5" max="5" width="5.34821428571429" customWidth="1"/>
+    <col min="6" max="6" width="12.3482142857143" customWidth="1"/>
+    <col min="7" max="7" width="13.5357142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.0089285714286" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:9">
@@ -1041,7 +1123,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1051,14 +1133,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customFormat="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
@@ -1066,22 +1148,190 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
-        <v>10</v>
+      <c r="G2" s="1">
+        <v>176</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="3"/>
+    <row r="3" customFormat="1" ht="408" customHeight="1" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2880</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:9">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2878</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="14:14">
+      <c r="N39" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s" tooltip="https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://dv6u3-vqaaa-aaaah-qcdlq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://fp7fo-2aaaa-aaaaf-qaeea-cai.raw.ic0.app/Token/%d" tooltip="https://fp7fo-2aaaa-aaaaf-qaeea-cai.raw.ic0.app/Token/%d"/>
+    <hyperlink ref="C2" r:id="rId4" display="https://x4oqm-bqaaa-aaaam-qahaq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s" tooltip="https://x4oqm-bqaaa-aaaam-qahaq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/process/test_file/nft_image_test.xlsx
+++ b/process/test_file/nft_image_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Canister</t>
   </si>
@@ -43,13 +43,13 @@
     <t>storage canister</t>
   </si>
   <si>
-    <t>x4oqm-bqaaa-aaaam-qahaq-cai</t>
-  </si>
-  <si>
-    <t>DRIP BANG</t>
-  </si>
-  <si>
-    <t>https://x4oqm-bqaaa-aaaam-qahaq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+    <t>sbcwr-3qaaa-aaaam-qamoa-cai</t>
+  </si>
+  <si>
+    <t>cryptoText</t>
+  </si>
+  <si>
+    <t>https://sbcwr-3qaaa-aaaam-qamoa-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
   </si>
   <si>
     <t>identifier</t>
@@ -58,76 +58,25 @@
     <t>gif</t>
   </si>
   <si>
-    <t>q6hjz-kyaaa-aaaah-qcama-cai</t>
-  </si>
-  <si>
-    <t>ICPBunny</t>
-  </si>
-  <si>
-    <t>https://fp7fo-2aaaa-aaaaf-qaeea-cai.raw.ic0.app/Token/%d</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>jpg</t>
-  </si>
-  <si>
-    <t>n6bj5-ryaaa-aaaan-qaaqq-cai</t>
-  </si>
-  <si>
-    <t>Weapons of Eimolad</t>
-  </si>
-  <si>
-    <t>https://n6bj5-ryaaa-aaaan-qaaqq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>dv6u3-vqaaa-aaaah-qcdlq-cai</t>
-  </si>
-  <si>
-    <t>Tyler &amp; Dakota</t>
-  </si>
-  <si>
-    <t>https://dv6u3-vqaaa-aaaah-qcdlq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>crt3j-mqaaa-aaaah-qcdnq-cai</t>
-  </si>
-  <si>
-    <t>Neil White</t>
-  </si>
-  <si>
-    <t>https://crt3j-mqaaa-aaaah-qcdnq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>cnxby-3qaaa-aaaah-qcdpq-cai</t>
-  </si>
-  <si>
-    <t>Andre Wee</t>
-  </si>
-  <si>
-    <t>https://cnxby-3qaaa-aaaah-qcdpq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>cdvmq-aaaaa-aaaah-qcdoq-cai</t>
-  </si>
-  <si>
-    <t>Selay Karasu</t>
-  </si>
-  <si>
-    <t>https://cdvmq-aaaaa-aaaah-qcdoq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>4gbxl-byaaa-aaaak-aafuq-cai</t>
-  </si>
-  <si>
-    <t>ICPuppies Wearables</t>
-  </si>
-  <si>
-    <t>https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
-  </si>
-  <si>
-    <t>ep54t-xiaaa-aaaah-qcdza-cai</t>
+    <t>tco7x-piaaa-aaaam-qamiq-cai</t>
+  </si>
+  <si>
+    <t>3D motorcycles</t>
+  </si>
+  <si>
+    <t>https://tco7x-piaaa-aaaam-qamiq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>6fosk-kaaaa-aaaak-aawqq-cai</t>
+  </si>
+  <si>
+    <t>Kinic</t>
+  </si>
+  <si>
+    <t>https://6fosk-kaaaa-aaaak-aawqq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s</t>
+  </si>
+  <si>
+    <t>jpeg</t>
   </si>
   <si>
     <t>fp7fo-2aaaa</t>
@@ -138,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +101,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="13.5"/>
       <color rgb="FFF2F2F2"/>
       <name val="宋体"/>
@@ -160,7 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,37 +136,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,27 +173,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,14 +199,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,32 +259,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,19 +274,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,121 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,52 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +482,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,8 +504,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,162 +570,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,19 +1050,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="35.1160714285714" customWidth="1"/>
     <col min="2" max="2" width="29.1607142857143" customWidth="1"/>
-    <col min="3" max="3" width="7.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="5.19642857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.34821428571429" customWidth="1"/>
+    <col min="3" max="3" width="124.553571428571" customWidth="1"/>
+    <col min="4" max="4" width="38.3928571428571" customWidth="1"/>
+    <col min="5" max="5" width="86.0089285714286" customWidth="1"/>
     <col min="6" max="6" width="12.3482142857143" customWidth="1"/>
     <col min="7" max="7" width="13.5357142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.0089285714286" customWidth="1"/>
@@ -1123,13 +1088,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1143,13 +1108,11 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>176</v>
+      <c r="G2" s="3">
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1158,180 +1121,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="408" customHeight="1" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
-        <v>2880</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:9">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:9">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2878</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="14:14">
-      <c r="N39" s="3" t="s">
-        <v>38</v>
+    <row r="32" ht="20" spans="14:14">
+      <c r="N32" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://dv6u3-vqaaa-aaaah-qcdlq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://ep54t-xiaaa-aaaah-qcdza-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://fp7fo-2aaaa-aaaaf-qaeea-cai.raw.ic0.app/Token/%d" tooltip="https://fp7fo-2aaaa-aaaaf-qaeea-cai.raw.ic0.app/Token/%d"/>
-    <hyperlink ref="C2" r:id="rId4" display="https://x4oqm-bqaaa-aaaam-qahaq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s" tooltip="https://x4oqm-bqaaa-aaaam-qahaq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://sbcwr-3qaaa-aaaam-qamoa-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s" tooltip="https://sbcwr-3qaaa-aaaam-qamoa-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://tco7x-piaaa-aaaam-qamiq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s" tooltip="https://tco7x-piaaa-aaaam-qamiq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://6fosk-kaaaa-aaaak-aawqq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s" tooltip="https://6fosk-kaaaa-aaaak-aawqq-cai.raw.ic0.app/?type=thumbnail&amp;tokenid=%s"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
